--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_0_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_0_agile.xlsx
@@ -52,7 +52,7 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Stream-lipidcane</t>
+    <t>Stream-sugarcane</t>
   </si>
   <si>
     <t>Stream-ethanol</t>
@@ -73,7 +73,7 @@
     <t>Lipid retention [%]</t>
   </si>
   <si>
-    <t>Additional lipid extraction efficiency [%]</t>
+    <t>Bagasse lipid extraction efficiency [%]</t>
   </si>
   <si>
     <t>Capacity [ton/hr]</t>
@@ -515,22 +515,22 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.1247026175654391</v>
-      </c>
-      <c r="D4">
-        <v>0.8604020100502513</v>
+        <v>0.0404635115877897</v>
       </c>
       <c r="E4">
-        <v>-0.9520738018450461</v>
+        <v>-0.07889747243681094</v>
       </c>
       <c r="F4">
-        <v>0.5326378159453987</v>
+        <v>-0.07028125703142579</v>
       </c>
       <c r="H4">
-        <v>0.2455456386409661</v>
+        <v>-0.0767014175354384</v>
       </c>
       <c r="I4">
-        <v>0.2414805370134254</v>
+        <v>-0.08339008475211883</v>
+      </c>
+      <c r="J4">
+        <v>0.1218045325129294</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -539,22 +539,22 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.05537538438460963</v>
-      </c>
-      <c r="D5">
-        <v>-0.0007050176254406361</v>
+        <v>0.02181804545113629</v>
       </c>
       <c r="E5">
-        <v>-0.05248631215780395</v>
+        <v>0.1343358583964599</v>
       </c>
       <c r="F5">
-        <v>-0.02843321083027076</v>
+        <v>0.1323993099827496</v>
       </c>
       <c r="H5">
-        <v>-0.05788344708617716</v>
+        <v>0.1364779119477987</v>
       </c>
       <c r="I5">
-        <v>-0.067419185479637</v>
+        <v>0.08714767869196731</v>
+      </c>
+      <c r="J5">
+        <v>0.03280186734912495</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -563,22 +563,22 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>-0.04193654841371035</v>
-      </c>
-      <c r="D6">
-        <v>-0.08080852021300534</v>
+        <v>-0.005848646216155405</v>
       </c>
       <c r="E6">
-        <v>0.04221705542638566</v>
+        <v>-0.05899947498687468</v>
       </c>
       <c r="F6">
-        <v>-0.07546088652216307</v>
+        <v>-0.06596114902872573</v>
       </c>
       <c r="H6">
-        <v>-0.06488712217805447</v>
+        <v>-0.06198154953873847</v>
       </c>
       <c r="I6">
-        <v>-0.148427210680267</v>
+        <v>-0.06938873471836797</v>
+      </c>
+      <c r="J6">
+        <v>0.08441035871967016</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -587,22 +587,22 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>-0.02242706067651692</v>
-      </c>
-      <c r="D7">
-        <v>0.3602040051001276</v>
+        <v>0.08461711542788571</v>
       </c>
       <c r="E7">
-        <v>0.3130203255081378</v>
+        <v>0.8631200780019502</v>
       </c>
       <c r="F7">
-        <v>0.6753393834845872</v>
+        <v>0.8734613365334135</v>
       </c>
       <c r="H7">
-        <v>0.8118952973824348</v>
+        <v>0.8663766594164855</v>
       </c>
       <c r="I7">
-        <v>0.9450776269406737</v>
+        <v>0.9999099977499439</v>
+      </c>
+      <c r="J7">
+        <v>-0.07982780558116795</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -613,22 +613,22 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.3345113627840696</v>
-      </c>
-      <c r="D8">
-        <v>-0.0428020700517513</v>
+        <v>0.9738648466211656</v>
       </c>
       <c r="E8">
-        <v>-0.006318157953948849</v>
+        <v>0.03920348008700219</v>
       </c>
       <c r="F8">
-        <v>-0.05282682067051677</v>
+        <v>0.04167554188854722</v>
       </c>
       <c r="H8">
-        <v>-0.05706292657316434</v>
+        <v>0.04057751443786095</v>
       </c>
       <c r="I8">
-        <v>-0.03978249456236406</v>
+        <v>0.0428020700517513</v>
+      </c>
+      <c r="J8">
+        <v>0.04609412241704304</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -639,22 +639,22 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.8415510387759695</v>
-      </c>
-      <c r="D9">
-        <v>-0.07465386634665867</v>
+        <v>-0.01316282907072677</v>
       </c>
       <c r="E9">
-        <v>0.009027225680642017</v>
+        <v>-0.004995124878121954</v>
       </c>
       <c r="F9">
-        <v>-0.08737868446711168</v>
+        <v>-0.004845121128028201</v>
       </c>
       <c r="H9">
-        <v>-0.07598139953498838</v>
+        <v>-0.005329633240831021</v>
       </c>
       <c r="I9">
-        <v>-0.09134328358208957</v>
+        <v>0.02213005325133129</v>
+      </c>
+      <c r="J9">
+        <v>-0.00242407157670279</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -665,22 +665,22 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.1195049876246906</v>
-      </c>
-      <c r="D10">
-        <v>0.02166954173854346</v>
+        <v>0.1096857421435536</v>
       </c>
       <c r="E10">
-        <v>-0.01734493362334059</v>
+        <v>-0.02114002850071252</v>
       </c>
       <c r="F10">
-        <v>0.02225605640141004</v>
+        <v>-0.01516237905947649</v>
       </c>
       <c r="H10">
-        <v>0.01319432985824646</v>
+        <v>-0.01969699242481062</v>
       </c>
       <c r="I10">
-        <v>0.05229880747018676</v>
+        <v>-0.03204680117002925</v>
+      </c>
+      <c r="J10">
+        <v>-0.0129336335223706</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -691,22 +691,22 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.2089417235430886</v>
-      </c>
-      <c r="D11">
-        <v>0.04963924098102453</v>
+        <v>0.05156678916972925</v>
       </c>
       <c r="E11">
-        <v>-0.03039675991899798</v>
+        <v>0.1040351008775219</v>
       </c>
       <c r="F11">
-        <v>0.04722418060451512</v>
+        <v>0.0976689417235431</v>
       </c>
       <c r="H11">
-        <v>0.0546868671716793</v>
+        <v>0.1030765769144229</v>
       </c>
       <c r="I11">
-        <v>0.05372684317107928</v>
+        <v>0.1248826220655516</v>
+      </c>
+      <c r="J11">
+        <v>0.002036190114259168</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -715,22 +715,22 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.0262521563039076</v>
-      </c>
-      <c r="D12">
-        <v>0.1895252381309533</v>
+        <v>0.04514962874071852</v>
       </c>
       <c r="E12">
-        <v>0.2251961299032476</v>
+        <v>0.3997599939998501</v>
       </c>
       <c r="F12">
-        <v>0.369627240681017</v>
+        <v>0.3808070201755045</v>
       </c>
       <c r="H12">
-        <v>0.4428995724893123</v>
+        <v>0.3954653866346658</v>
       </c>
       <c r="I12">
-        <v>-0.02690017250431261</v>
+        <v>-0.09050776269406736</v>
+      </c>
+      <c r="J12">
+        <v>-0.01068437119276523</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -739,22 +739,22 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.1094472361809045</v>
-      </c>
-      <c r="D13">
-        <v>0.08236555913897849</v>
+        <v>-0.1700952523813096</v>
       </c>
       <c r="E13">
-        <v>-0.1040936023400585</v>
+        <v>0.012028800720018</v>
       </c>
       <c r="F13">
-        <v>0.05854646366159154</v>
+        <v>0.02430060751518788</v>
       </c>
       <c r="H13">
-        <v>0.02358058951473787</v>
+        <v>0.01491787294682367</v>
       </c>
       <c r="I13">
-        <v>-0.02703817595439887</v>
+        <v>0.06003150078751969</v>
+      </c>
+      <c r="J13">
+        <v>0.08609167855977877</v>
       </c>
     </row>
   </sheetData>
